--- a/BackTest/2020-01-24 BackTest BTC.xlsx
+++ b/BackTest/2020-01-24 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>7.399076069999987</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>7.280076069999987</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>7.280076069999987</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4.632176069999987</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3.861361829999987</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3.861361829999987</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3.946561829999987</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2.492161829999987</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0.1076526599999874</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-0.5534473400000126</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-0.5534473400000126</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-0.3073473400000126</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-0.1139473400000125</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-0.1139473400000125</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>0.0226526599999875</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>0.0088526599999875</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1.260173879999987</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1.306073879999987</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1.268973879999987</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1.268973879999987</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>0.2663718099999874</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-0.7845281900000125</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-0.7845281900000125</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-26.58622819000001</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>12.09847180999999</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>20.58487838999999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>25.99517838999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>16.54837838999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>24.92776552999999</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>24.92776552999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>24.85716552999999</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>25.91316973999999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>28.49236973999999</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>54.90156973999999</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>47.86696973999999</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>47.24316973999998</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>50.89526973999998</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>42.39096973999998</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>43.33853299999998</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>43.27413299999998</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>44.41643299999998</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>71.43183299999998</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>67.63774445999998</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>68.40824445999998</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>37.31444445999998</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>37.19634445999998</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>37.79884445999998</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>37.36224448999997</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>38.96434451999998</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>9.737742999999977</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>9.870542999999977</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>9.010042999999976</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>9.010042999999976</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>11.30766617999998</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>9.220973899999978</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>9.275772659999978</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>9.275772659999978</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>9.341772659999979</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>11.09956516999998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>11.09956516999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>13.23316516999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>12.05096516999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>12.05096516999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>11.92326516999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>13.74566118999998</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>13.63216118999998</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>13.23206118999998</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>13.23206118999998</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>13.22586118999998</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>13.22586118999998</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>13.22856118999998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>13.22856118999998</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>13.22856118999998</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>13.23346118999998</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>13.29306118999998</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13.13036118999998</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13.18806118999998</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13.16176118999998</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>11.45066118999998</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>11.45076118999998</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>11.72296118999998</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>12.33416118999998</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>10.94786118999998</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>12.19490746999998</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>11.83530746999998</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>12.41350746999998</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>7.796607469999982</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>10.42850746999998</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>10.43630746999998</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>10.42160592999998</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>8.774905929999981</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>8.772005929999981</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>8.785005929999981</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>7.490405929999981</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>4.708505929999982</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>4.709705929999981</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>4.834105929999981</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>8.151884559999981</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>8.151784559999982</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>8.090184559999981</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>8.141308389999981</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2.772093600000019</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>3.52300552999998</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>3.41560552999998</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>3.66110552999998</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>3.69100552999998</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>9.333001419999979</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>8.988701419999979</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>9.089874209999978</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>9.390074209999979</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>9.352074209999978</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>9.308574209999978</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>9.304074209999978</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>9.312074209999977</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>9.314005209999978</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>9.236305209999978</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>14.81752766999998</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>14.78932766999998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>15.38942766999998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>15.36042766999998</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>15.35122766999998</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>15.82202766999998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>15.43412766999998</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>17.96855454999998</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>17.72005454999998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>17.82375454999998</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>17.89285454999998</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>17.74905454999998</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>17.75275454999998</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>17.74065454999998</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>17.82975454999998</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>17.89605454999997</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>17.68165454999997</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>17.68395454999997</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>18.70340274999997</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>14.68550274999997</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>14.69780423999997</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>14.56210423999997</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>15.61430423999997</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>15.27800426999997</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>14.69500426999997</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>15.33560426999997</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>15.53560426999997</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>15.53430426999997</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>14.83130426999997</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>14.59320426999997</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>14.87700426999997</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>14.87729659999997</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>14.87719576999997</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>14.12719576999997</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>13.94939576999997</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>14.22409576999997</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>14.04759576999997</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>13.76459576999997</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>13.88779223999997</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>14.02859223999997</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>14.48529223999997</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>14.16599761999997</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>14.15529761999997</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>14.16547927999997</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>14.11737927999997</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>14.31539761999997</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>14.31429761999997</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>14.31689761999997</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>14.28139761999997</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>14.24649761999997</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>14.29179761999997</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>14.18199761999997</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>14.29219761999997</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>14.21409761999998</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>14.21652003999997</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>14.21812003999997</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>14.19732003999997</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>12.30892003999997</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>13.81521744999997</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>13.70282777999997</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>13.68532777999997</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>14.11862777999997</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>14.12982777999997</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>14.37392620999997</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>14.44864647999997</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>14.27602244999997</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>14.41572244999997</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>16.74734647999997</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>15.31844642999997</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>15.35244642999997</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>15.25412074999997</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>15.86490960999997</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>15.65350960999997</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>16.14950950999998</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>16.27540950999998</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>16.26840950999998</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>16.95340950999998</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>17.19020950999997</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>17.34159165999997</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>14.75089165999997</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>13.86106838999997</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>14.58966838999997</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>15.39426838999997</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>15.33386838999997</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>16.51136838999997</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>16.78916838999998</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>15.90076838999997</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>16.24726838999997</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>16.10906838999997</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>18.83556838999997</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>18.17536838999997</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>17.57236838999997</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>17.90026838999997</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>15.73256838999997</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>18.63026838999997</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>18.46416838999997</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>25.94496838999997</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>26.72066838999997</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>26.69876838999997</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>27.66086286999997</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>27.61776286999998</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>27.57196286999998</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>15.12726286999998</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>13.34536286999998</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>16.00214025999998</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>15.86804025999998</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>24.88654025999998</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>24.19984025999998</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>24.82924025999998</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>24.82424025999998</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>23.34174025999998</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>25.04004154999998</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>25.06554154999998</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>25.34284156999998</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>24.01224156999998</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>24.81004156999997</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>24.62784005999998</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>24.77484005999997</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>23.97603779999997</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>24.80390381999997</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>25.14860381999997</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>25.13440381999997</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>24.89310381999997</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>24.59570381999997</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>25.88928660999997</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>25.90618660999997</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>25.68958660999997</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>26.15059906999997</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>23.05029906999997</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>23.18669906999997</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>22.66789906999997</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>21.23977548999997</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>20.80457548999997</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>17.25637546999997</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>16.74487546999997</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>12.00717961999997</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>12.66307961999997</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>11.87007961999997</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>10.23047961999997</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>12.84427858999997</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>13.43187858999997</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>13.65587858999997</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>12.68167858999997</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>15.50507725999997</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>15.21167727999997</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>14.67055477999997</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>14.77145477999997</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>14.52575477999997</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>14.82875477999997</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>17.97135477999997</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>19.42615472999997</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>18.08445472999997</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>17.44205472999997</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>20.77715472999997</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>27.21255472999997</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>27.92445472999997</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>19.91425472999997</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>21.94045472999997</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>21.57265472999998</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>21.84185472999998</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>21.42991123999998</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>19.78186604999998</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>23.38096604999998</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>20.67756604999998</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>21.15866604999998</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>18.94706604999998</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>18.42026604999998</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>17.17516604999998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>13.77985357999998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>10.44545357999998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>2.242853579999975</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>5.847056249999975</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>4.186556249999975</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>4.186556249999975</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>3.302556249999975</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-0.9046814000000247</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-4.467343750000024</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-8.982043750000024</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-16.04924375000002</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-13.94590742000002</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-18.33565480000003</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-15.10595480000003</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-18.00075799000003</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-11.44315229000003</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-14.13585229000003</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-14.13585229000003</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-16.15995779000002</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-14.82425779000003</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-14.49765779000003</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-10.25895779000003</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-6.513231660000027</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-6.513231660000027</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-6.513231660000027</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-8.252287640000027</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-12.88858768000003</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-18.76808768000003</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-5.83798768000003</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-1.230887720000029</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>1.279212279999971</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>8.24871224999997</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>3.89021224999997</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>10.14451657999997</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>6.449971619999969</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2.480041360000032</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-19.06174136000003</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-28.59514136000004</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-33.04414136000003</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-40.38294136000003</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-29.35561247000003</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-31.24331251000003</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-26.31781251000003</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-11.93751251000003</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-11.93751251000003</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-16.35375996000003</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-20.82985996000003</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-31.40077642000003</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-43.18987642000003</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-46.23757642000003</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-42.08397221000003</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-42.08397221000003</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-31.93897221000003</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-29.10577637000004</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-29.10577637000004</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-35.00767637000003</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-34.11034880000003</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-27.07847637000003</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-22.70887370000003</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-22.08077637000003</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-22.08077637000003</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-18.62407637000003</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-15.38623557000003</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-23.55529830000003</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-20.41439830000003</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-25.88041682000003</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-21.79460075000003</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-21.59930075000003</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-21.93640075000003</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-21.93640075000003</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-21.93630075000003</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-21.93630075000003</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-21.93630075000003</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-21.37260075000003</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-23.17310075000003</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-20.58020075000003</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-15.09036262000003</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-15.09036262000003</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-15.72806262000003</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-20.29606612000003</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-21.85346612000004</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-21.20786770000004</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-21.20786770000004</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-24.30076770000004</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-24.30076770000004</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-23.23506770000004</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-23.23506770000004</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-23.23506770000004</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-23.44130336000004</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-23.28710336000004</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-23.23720336000004</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-23.61070336000004</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-23.56330336000004</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-23.70130333000004</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-21.15879977000004</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-22.37669977000004</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-22.32489977000004</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-22.32489977000004</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-22.40709977000004</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-20.48689621000004</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-28.43639621000004</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-18.68919621000004</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-19.01569980000004</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-18.98119980000004</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-14.72730339000004</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-12.08061051000004</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-21.61551763000004</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-22.42431763000004</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-22.42431763000004</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-22.31001763000004</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-22.11762130000004</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-23.57902130000004</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-10.23377462000004</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-13.83777807000004</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-10.78538147000004</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-11.12488147000004</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-5.715378070000039</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-0.5766780700000389</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>7.050821929999961</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>6.561921929999961</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>6.140321929999962</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>6.001921929999962</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>2.656021929999962</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>8.841121929999963</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>8.876221929999963</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>8.871121929999962</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>8.875021929999962</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>8.875021929999962</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>8.875021929999962</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>8.890321929999962</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>9.584421909999962</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>6.579721909999963</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>6.476121909999963</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>6.499321909999963</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>6.499321909999963</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>6.659621909999963</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>8.378721909999964</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>8.378721909999964</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>8.367021909999965</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>8.367021909999965</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>8.464121909999964</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>7.853089609999964</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>7.853089609999964</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>8.866889609999964</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>7.872089609999964</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>2.682289609999964</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>2.682289609999964</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>2.766579059999964</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>2.766579059999964</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>2.108579059999964</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>2.108579059999964</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>2.165645789999964</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>1.722645789999964</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>1.782945789999964</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>1.680345789999964</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>2.663049169999963</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>1.455349139999963</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>1.455349139999963</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>2.014749139999963</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>1.163749139999963</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>1.163749139999963</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>2.169349139999963</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>0.6393491399999631</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>0.1382491399999631</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>1.783949139999963</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>1.820549139999963</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>5.870849139999963</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-5.147450860000037</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-4.703750860000037</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-5.525650860000037</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-4.284047210000037</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-5.189847210000037</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-6.564947210000037</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-6.564947210000037</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-7.363247210000037</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-7.562847210000037</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-7.562847210000037</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-12.84064721000004</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-17.43575142000004</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-42.00295142000004</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-43.97145142000004</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-46.36965142000004</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-56.63723480000004</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-58.78433480000004</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-86.62553485000004</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-94.99673485000004</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-98.80033689000004</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-87.55654306000004</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>-96.77241435000009</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>-102.7707143500001</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-110.8098027900001</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>-112.8329545000001</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>-118.7503545000001</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>-131.6259902900001</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>-140.8839844900001</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-138.0244844900001</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-138.0244844900001</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-140.6555844900001</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-138.7948844900001</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-152.1431597100001</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-152.4877597100001</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-151.9196597100001</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-152.1069597100001</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-154.0446597100001</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-154.0446597100001</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-149.7337597100001</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-152.0595571200001</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-156.9019761400001</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-154.1740761400001</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-156.4185905500001</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-182.3998905500001</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-178.9990905500001</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-175.0915137300001</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-177.1699137300001</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -41800,11 +41800,17 @@
         <v>-258.5679652000002</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>9675000</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -41833,11 +41839,17 @@
         <v>-256.4728652000002</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>9677000</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -41866,11 +41878,17 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>9683000</v>
+      </c>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -41899,11 +41917,17 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>9675000</v>
+      </c>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -41932,11 +41956,17 @@
         <v>-261.1334067900002</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>9675000</v>
+      </c>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -41965,11 +41995,17 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>9672000</v>
+      </c>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -41998,11 +42034,17 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>9673000</v>
+      </c>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42031,11 +42073,17 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>9673000</v>
+      </c>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42068,7 +42116,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42101,7 +42153,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42134,7 +42190,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42167,7 +42227,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42200,7 +42264,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42233,7 +42301,11 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42266,7 +42338,11 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42299,7 +42375,11 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42332,7 +42412,11 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42361,11 +42445,17 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>9661000</v>
+      </c>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42394,11 +42484,17 @@
         <v>-267.8933588500002</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>9661000</v>
+      </c>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42427,11 +42523,17 @@
         <v>-270.3184372700002</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>9656000</v>
+      </c>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -42460,11 +42562,17 @@
         <v>-270.6284372700002</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>9648000</v>
+      </c>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -42493,11 +42601,17 @@
         <v>-282.4148372700002</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -42526,11 +42640,17 @@
         <v>-283.8736372700002</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>9642000</v>
+      </c>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -42559,11 +42679,17 @@
         <v>-291.7830372700002</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>9640000</v>
+      </c>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -42592,7 +42718,7 @@
         <v>-278.8255372700002</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1279" t="n">
         <v>9638000</v>
@@ -42600,7 +42726,7 @@
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1279" t="n">
@@ -42631,9 +42757,11 @@
         <v>-294.2960727000002</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>9649000</v>
+      </c>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -42668,9 +42796,11 @@
         <v>-277.8499598000002</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>9648000</v>
+      </c>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -42816,9 +42946,11 @@
         <v>-282.4840106700002</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>9648000</v>
+      </c>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -42853,9 +42985,11 @@
         <v>-280.1777106700002</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>9651000</v>
+      </c>
       <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
@@ -42890,9 +43024,11 @@
         <v>-280.0471751600002</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>9652000</v>
+      </c>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -42927,9 +43063,11 @@
         <v>-273.7432106700002</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>9656000</v>
+      </c>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -42964,9 +43102,11 @@
         <v>-267.2727899200002</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>9658000</v>
+      </c>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43001,9 +43141,11 @@
         <v>-279.7453613700001</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>9659000</v>
+      </c>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43038,9 +43180,11 @@
         <v>-283.5039831900001</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>9652000</v>
+      </c>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43075,9 +43219,11 @@
         <v>-285.2451020300001</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>9648000</v>
+      </c>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43112,9 +43258,11 @@
         <v>-287.3622023900001</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>9640000</v>
+      </c>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43149,9 +43297,11 @@
         <v>-288.6816023900001</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>9635000</v>
+      </c>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43186,9 +43336,11 @@
         <v>-290.7284128200001</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>9634000</v>
+      </c>
       <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
@@ -43223,9 +43375,11 @@
         <v>-279.1970128200001</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>9633000</v>
+      </c>
       <c r="J1296" t="inlineStr"/>
       <c r="K1296" t="inlineStr">
         <is>
@@ -43260,9 +43414,11 @@
         <v>-285.69094212</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>9634000</v>
+      </c>
       <c r="J1297" t="inlineStr"/>
       <c r="K1297" t="inlineStr">
         <is>
@@ -43297,9 +43453,11 @@
         <v>-281.78588373</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>9625000</v>
+      </c>
       <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
@@ -43334,9 +43492,11 @@
         <v>-280.38348373</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>9641000</v>
+      </c>
       <c r="J1299" t="inlineStr"/>
       <c r="K1299" t="inlineStr">
         <is>
@@ -43371,9 +43531,11 @@
         <v>-281.58518373</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>9647000</v>
+      </c>
       <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
@@ -43408,9 +43570,11 @@
         <v>-278.65268373</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>9637000</v>
+      </c>
       <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
@@ -43445,9 +43609,11 @@
         <v>-276.2692080100001</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>9640000</v>
+      </c>
       <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
@@ -43482,9 +43648,11 @@
         <v>-272.8384736300001</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>9644000</v>
+      </c>
       <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
@@ -43519,9 +43687,11 @@
         <v>-275.1520838300001</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
@@ -43556,9 +43726,11 @@
         <v>-277.9648887400001</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>9641000</v>
+      </c>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -43593,9 +43765,11 @@
         <v>-280.4867887400001</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>9630000</v>
+      </c>
       <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
@@ -43630,7 +43804,7 @@
         <v>-284.1035887400001</v>
       </c>
       <c r="H1307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1307" t="n">
         <v>9629000</v>
@@ -43669,7 +43843,7 @@
         <v>-276.9874166800001</v>
       </c>
       <c r="H1308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1308" t="n">
         <v>9626000</v>
@@ -43708,7 +43882,7 @@
         <v>-278.8081244500002</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1309" t="n">
         <v>9627000</v>
@@ -43747,7 +43921,7 @@
         <v>-270.4505322200001</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1310" t="n">
         <v>9622000</v>
@@ -43786,7 +43960,7 @@
         <v>-273.4654322200001</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1311" t="n">
         <v>9632000</v>
@@ -43825,7 +43999,7 @@
         <v>-274.8863322200002</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1312" t="n">
         <v>9627000</v>
@@ -43864,9 +44038,11 @@
         <v>-272.1471931600001</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>9626000</v>
+      </c>
       <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
@@ -43901,9 +44077,11 @@
         <v>-273.8174773700001</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>9630000</v>
+      </c>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -43938,7 +44116,7 @@
         <v>-251.6778006400001</v>
       </c>
       <c r="H1315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1315" t="n">
         <v>9624000</v>
@@ -44088,9 +44266,11 @@
         <v>-242.2367474800001</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44125,9 +44305,11 @@
         <v>-241.4560474400001</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
@@ -44162,7 +44344,7 @@
         <v>-245.0069209300001</v>
       </c>
       <c r="H1321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1321" t="n">
         <v>9646000</v>
@@ -44201,7 +44383,7 @@
         <v>-246.6491676200001</v>
       </c>
       <c r="H1322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1322" t="n">
         <v>9644000</v>
@@ -44240,7 +44422,7 @@
         <v>-248.3633044200001</v>
       </c>
       <c r="H1323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1323" t="n">
         <v>9643000</v>
@@ -44279,7 +44461,7 @@
         <v>-250.2572044200001</v>
       </c>
       <c r="H1324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1324" t="n">
         <v>9642000</v>
@@ -44318,7 +44500,7 @@
         <v>-252.7367936000001</v>
       </c>
       <c r="H1325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1325" t="n">
         <v>9640000</v>
@@ -44357,7 +44539,7 @@
         <v>-255.1630314800001</v>
       </c>
       <c r="H1326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1326" t="n">
         <v>9631000</v>
@@ -44396,7 +44578,7 @@
         <v>-251.6462201100001</v>
       </c>
       <c r="H1327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1327" t="n">
         <v>9625000</v>
@@ -44435,7 +44617,7 @@
         <v>-251.7984201100001</v>
       </c>
       <c r="H1328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1328" t="n">
         <v>9626000</v>
@@ -44452,6 +44634,6 @@
       <c r="M1328" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BTC.xlsx
+++ b/BackTest/2020-01-24 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>7.399076069999987</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>7.280076069999987</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>7.280076069999987</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4.632176069999987</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3.861361829999987</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3.861361829999987</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3.946561829999987</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2.492161829999987</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0.1076526599999874</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-0.5534473400000126</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-0.5534473400000126</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-0.3073473400000126</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-0.1139473400000125</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-0.1139473400000125</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>0.0226526599999875</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-0.0041473400000125</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>0.0088526599999875</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1.260173879999987</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1.306073879999987</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1.268973879999987</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1.268973879999987</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>0.2663718099999874</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-0.7845281900000125</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-0.7845281900000125</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-26.58622819000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>12.09847180999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>20.58487838999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>25.99517838999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>16.54837838999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>24.92776552999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>24.92776552999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>24.85716552999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>25.91316973999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>28.49236973999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>54.90156973999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>47.86696973999999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>47.24316973999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>50.89526973999998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>43.27413299999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>44.41643299999998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>71.43183299999998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>67.63774445999998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>68.40824445999998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>9.870542999999977</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>9.010042999999976</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>9.010042999999976</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>11.30766617999998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>9.220973899999978</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>9.275772659999978</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>9.275772659999978</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>9.341772659999979</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>11.06946353999998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>11.09956516999998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>11.09956516999998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>13.23316516999998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>12.05096516999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>12.05096516999998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>11.92326516999998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>13.63216118999998</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>13.23206118999998</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>13.23206118999998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>13.22586118999998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>13.22586118999998</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>13.22856118999998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>13.22856118999998</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>13.22856118999998</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>13.23346118999998</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13.13036118999998</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13.18806118999998</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13.16176118999998</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>11.45066118999998</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>11.45076118999998</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>11.72296118999998</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>12.33416118999998</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>10.94786118999998</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>12.19490746999998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>11.83530746999998</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>12.41350746999998</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>7.796607469999982</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>10.42850746999998</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>10.43630746999998</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>10.42160592999998</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>8.774905929999981</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>8.772005929999981</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>8.785005929999981</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>7.490405929999981</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>4.708505929999982</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>4.709705929999981</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>4.834105929999981</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>8.151784559999982</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>8.090184559999981</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>3.52300552999998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>3.41560552999998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>3.66110552999998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>3.69100552999998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>9.333001419999979</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>8.988701419999979</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>9.089874209999978</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>9.390074209999979</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>9.352074209999978</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>9.308574209999978</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>9.304074209999978</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>9.312074209999977</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>9.314005209999978</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>9.236305209999978</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>14.81752766999998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>14.78932766999998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>15.38942766999998</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>15.36042766999998</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>15.35122766999998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>15.82202766999998</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>17.96855454999998</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>17.72005454999998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>17.82375454999998</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>17.89285454999998</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>17.74905454999998</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>17.75275454999998</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>17.74065454999998</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>17.82975454999998</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>17.89605454999997</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>17.68165454999997</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>17.68395454999997</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>14.68550274999997</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>14.69780423999997</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>14.56210423999997</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>15.61430423999997</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>15.27800426999997</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>14.69500426999997</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>15.33560426999997</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>15.53560426999997</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>15.53430426999997</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>14.83130426999997</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>14.59320426999997</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>14.87700426999997</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>14.87729659999997</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>14.87719576999997</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>14.12719576999997</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>13.94939576999997</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>14.04759576999997</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>13.76459576999997</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>13.88779223999997</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>14.02859223999997</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>14.48529223999997</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>14.16599761999997</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>14.15529761999997</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>14.16547927999997</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>14.11737927999997</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>14.31539761999997</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>14.31429761999997</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>14.31689761999997</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>14.28139761999997</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>14.24649761999997</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>14.29179761999997</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>14.18199761999997</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>13.70282777999997</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>13.68532777999997</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>14.11862777999997</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>15.31844642999997</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>16.14950950999998</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>16.27540950999998</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>16.26840950999998</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>16.95340950999998</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>17.19020950999997</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>17.34159165999997</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>13.86106838999997</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>14.58966838999997</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>15.39426838999997</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>15.33386838999997</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>16.51136838999997</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>16.78916838999998</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>26.72066838999997</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>26.69876838999997</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>15.12726286999998</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>13.34536286999998</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>24.88654025999998</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>23.34174025999998</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>25.04004154999998</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>25.34284156999998</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>24.81004156999997</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>24.62784005999998</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>24.77484005999997</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>21.23977548999997</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>20.80457548999997</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>16.74487546999997</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>12.00717961999997</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>12.66307961999997</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>11.87007961999997</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>10.23047961999997</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>12.84427858999997</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>13.43187858999997</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>13.65587858999997</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>12.68167858999997</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>15.50507725999997</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>15.21167727999997</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>14.67055477999997</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>14.77145477999997</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>14.52575477999997</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>14.82875477999997</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>17.97135477999997</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>19.42615472999997</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>18.08445472999997</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>17.44205472999997</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>20.77715472999997</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>27.21255472999997</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>27.92445472999997</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>19.91425472999997</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>21.94045472999997</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>21.57265472999998</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>21.84185472999998</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>21.42991123999998</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>19.78186604999998</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>23.38096604999998</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>20.67756604999998</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>21.15866604999998</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>18.94706604999998</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>18.42026604999998</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>17.17516604999998</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>13.77985357999998</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>10.44545357999998</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>2.242853579999975</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>5.847056249999975</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>4.186556249999975</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>4.186556249999975</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>3.302556249999975</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-0.9046814000000247</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-4.467343750000024</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-8.982043750000024</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-16.04924375000002</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-13.94590742000002</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-18.33565480000003</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-15.10595480000003</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-18.00075799000003</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-11.44315229000003</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-14.13585229000003</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-14.13585229000003</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-16.15995779000002</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-14.82425779000003</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-14.49765779000003</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-10.25895779000003</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-6.513231660000027</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-6.513231660000027</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-6.513231660000027</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-8.252287640000027</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-12.88858768000003</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-18.76808768000003</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-5.83798768000003</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-1.230887720000029</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>1.279212279999971</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>8.24871224999997</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>3.89021224999997</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>10.14451657999997</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>6.449971619999969</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2.480041360000032</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-19.06174136000003</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-28.59514136000004</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-33.04414136000003</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-40.38294136000003</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-29.35561247000003</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-31.24331251000003</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-26.31781251000003</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-11.93751251000003</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-11.93751251000003</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-16.35375996000003</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-20.82985996000003</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-31.40077642000003</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-43.18987642000003</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-46.23757642000003</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-42.08397221000003</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-42.08397221000003</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-31.93897221000003</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-29.10577637000004</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-29.10577637000004</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-35.00767637000003</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-34.11034880000003</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-27.07847637000003</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-22.70887370000003</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-22.08077637000003</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-22.08077637000003</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-18.62407637000003</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-15.38623557000003</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-23.55529830000003</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-20.41439830000003</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-25.88041682000003</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-21.79460075000003</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-21.59930075000003</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-21.93640075000003</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-21.93640075000003</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-21.93630075000003</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-21.93630075000003</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-21.93630075000003</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-21.37260075000003</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-23.17310075000003</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-20.58020075000003</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-15.09036262000003</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-15.09036262000003</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-15.72806262000003</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-20.29606612000003</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-21.85346612000004</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-21.20786770000004</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-21.20786770000004</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-24.30076770000004</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-24.30076770000004</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-23.23506770000004</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-23.23506770000004</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-23.23506770000004</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-23.44130336000004</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-23.28710336000004</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-23.23720336000004</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-23.61070336000004</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-23.56330336000004</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-23.70130333000004</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-21.15879977000004</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-22.37669977000004</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-22.32489977000004</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-22.32489977000004</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-22.40709977000004</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-20.48689621000004</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-28.43639621000004</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-18.68919621000004</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-19.01569980000004</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-18.98119980000004</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-14.72730339000004</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-12.08061051000004</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-21.61551763000004</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-22.42431763000004</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-22.42431763000004</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-22.31001763000004</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-22.11762130000004</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-23.57902130000004</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-10.23377462000004</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-13.83777807000004</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-10.78538147000004</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-11.12488147000004</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-5.715378070000039</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-0.5766780700000389</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>7.050821929999961</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>6.561921929999961</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>6.140321929999962</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>6.001921929999962</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>2.656021929999962</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>8.841121929999963</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>8.876221929999963</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>8.871121929999962</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>8.875021929999962</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>8.875021929999962</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>8.875021929999962</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>8.890321929999962</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>9.584421909999962</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>6.579721909999963</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>6.476121909999963</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>6.499321909999963</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>6.499321909999963</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>6.659621909999963</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>8.378721909999964</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>8.378721909999964</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>8.367021909999965</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>8.367021909999965</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>8.464121909999964</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>7.853089609999964</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>7.853089609999964</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>8.866889609999964</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>7.872089609999964</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>2.398489609999964</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>2.682289609999964</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>2.682289609999964</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>2.766579059999964</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>2.766579059999964</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>2.108579059999964</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>2.108579059999964</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>2.165645789999964</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>1.722645789999964</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>1.782945789999964</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>1.680345789999964</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>2.663049169999963</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>1.455349139999963</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>1.455349139999963</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>2.014749139999963</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>1.163749139999963</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>1.163749139999963</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>2.169349139999963</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>0.6393491399999631</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>0.1382491399999631</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>1.783949139999963</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>1.820549139999963</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>5.870849139999963</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-5.147450860000037</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-4.703750860000037</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-5.525650860000037</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-4.284047210000037</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-5.189847210000037</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-6.564947210000037</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-6.564947210000037</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-7.363247210000037</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-7.562847210000037</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-7.562847210000037</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-12.84064721000004</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-17.43575142000004</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-42.00295142000004</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-43.97145142000004</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-46.36965142000004</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-56.63723480000004</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-58.78433480000004</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-86.62553485000004</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-94.99673485000004</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-98.80033689000004</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-87.55654306000004</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-135.29393134</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-127.7296361</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-134.43314086</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-134.43104086</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-134.49444086</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-132.43044086</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-133.90028952</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-128.49288464</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-118.47708464</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-130.79881384</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-131.8439766</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-136.4258726100001</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-136.8471946800001</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-137.6488170700001</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-147.2536228900001</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-147.1368228700001</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-127.0246700800001</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-125.5946700800001</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-131.4666700800001</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-148.5387700800001</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-145.4975782300001</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-126.3497782300001</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-133.8455782300001</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-145.5713776100001</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-159.8728776100001</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-178.6980006600001</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-167.0444006600001</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-166.0504237100001</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-134.2537237100001</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-136.3211237100001</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-133.8728237100001</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-133.6069445600001</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-134.2236445600001</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-140.8624445600001</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-118.9064621000001</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-132.6653621000001</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-116.3499883800001</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-141.2438883800001</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-128.6041883800001</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-128.1383883800001</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-127.7122883800001</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-127.1551883800001</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-127.0980676000001</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-130.9280010600001</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-128.1837010600001</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-127.8460553000001</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-126.9990110300001</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-126.3889071600001</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-128.2507072000001</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-127.1972907800001</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-123.9542907800001</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-123.0041907800001</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-134.0025907800001</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-130.9729870400001</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-131.3408870400001</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-124.9711870400001</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-122.0545200900001</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-125.8075200900001</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>-102.7707143500001</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-110.8098027900001</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>-112.8329545000001</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>-118.7503545000001</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>-131.6259902900001</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>-140.8839844900001</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-138.0244844900001</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-138.0244844900001</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-140.6555844900001</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -38599,7 +38599,7 @@
         <v>-219.5171810100001</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -38830,7 +38830,7 @@
         <v>-216.7892364500001</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -38863,7 +38863,7 @@
         <v>-218.3448364500001</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -38896,7 +38896,7 @@
         <v>-221.1523661200001</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -39028,7 +39028,7 @@
         <v>-221.8969859200001</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -39127,7 +39127,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -39160,7 +39160,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -39193,7 +39193,7 @@
         <v>-220.8135859200002</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -39226,7 +39226,7 @@
         <v>-221.3098859200001</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -39259,7 +39259,7 @@
         <v>-224.5098859200001</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -39787,7 +39787,7 @@
         <v>-218.2682044800002</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -39820,7 +39820,7 @@
         <v>-215.9622695800002</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -39853,7 +39853,7 @@
         <v>-218.3918695800002</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -39886,7 +39886,7 @@
         <v>-218.2485695800002</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -39919,7 +39919,7 @@
         <v>-220.2503695800002</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -39952,7 +39952,7 @@
         <v>-225.2776695800002</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -39985,7 +39985,7 @@
         <v>-225.5894695800002</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -41536,11 +41536,17 @@
         <v>-251.1985154800001</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>9700000</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41569,11 +41575,17 @@
         <v>-251.0096154800001</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>9692000</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41602,11 +41614,17 @@
         <v>-252.0004154800001</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>9693000</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41635,11 +41653,17 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>9692000</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41668,11 +41692,17 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>9689000</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41701,11 +41731,17 @@
         <v>-254.0725154800001</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>9689000</v>
+      </c>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -41734,11 +41770,17 @@
         <v>-256.7937488900001</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>9688000</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -41767,11 +41809,17 @@
         <v>-261.6914652000002</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>9685000</v>
+      </c>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -41808,7 +41856,7 @@
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1255" t="n">
@@ -42112,9 +42160,11 @@
         <v>-274.0613067900002</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>9673000</v>
+      </c>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
@@ -42149,9 +42199,11 @@
         <v>-281.4345067900002</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>9662000</v>
+      </c>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
@@ -42186,9 +42238,11 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>9655000</v>
+      </c>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
@@ -42223,9 +42277,11 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>9650000</v>
+      </c>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
@@ -42260,9 +42316,11 @@
         <v>-272.9403463400002</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>9650000</v>
+      </c>
       <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
@@ -42297,9 +42355,11 @@
         <v>-277.3794463400002</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>9661000</v>
+      </c>
       <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
@@ -42334,9 +42394,11 @@
         <v>-271.2865463400002</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>9652000</v>
+      </c>
       <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
@@ -42371,9 +42433,11 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>9657000</v>
+      </c>
       <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
@@ -42408,9 +42472,11 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>9661000</v>
+      </c>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
@@ -42796,11 +42862,9 @@
         <v>-277.8499598000002</v>
       </c>
       <c r="H1281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1281" t="n">
-        <v>9648000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -42946,11 +43010,9 @@
         <v>-282.4840106700002</v>
       </c>
       <c r="H1285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>9648000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
@@ -42985,11 +43047,9 @@
         <v>-280.1777106700002</v>
       </c>
       <c r="H1286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1286" t="n">
-        <v>9651000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43024,11 +43084,9 @@
         <v>-280.0471751600002</v>
       </c>
       <c r="H1287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>9652000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43063,11 +43121,9 @@
         <v>-273.7432106700002</v>
       </c>
       <c r="H1288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>9656000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43102,11 +43158,9 @@
         <v>-267.2727899200002</v>
       </c>
       <c r="H1289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>9658000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43141,11 +43195,9 @@
         <v>-279.7453613700001</v>
       </c>
       <c r="H1290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>9659000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43180,11 +43232,9 @@
         <v>-283.5039831900001</v>
       </c>
       <c r="H1291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>9652000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43219,11 +43269,9 @@
         <v>-285.2451020300001</v>
       </c>
       <c r="H1292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>9648000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43258,11 +43306,9 @@
         <v>-287.3622023900001</v>
       </c>
       <c r="H1293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1293" t="n">
-        <v>9640000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43297,11 +43343,9 @@
         <v>-288.6816023900001</v>
       </c>
       <c r="H1294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1294" t="n">
-        <v>9635000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43336,11 +43380,9 @@
         <v>-290.7284128200001</v>
       </c>
       <c r="H1295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1295" t="n">
-        <v>9634000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
@@ -43414,11 +43456,9 @@
         <v>-285.69094212</v>
       </c>
       <c r="H1297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1297" t="n">
-        <v>9634000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
       <c r="K1297" t="inlineStr">
         <is>
@@ -43453,11 +43493,9 @@
         <v>-281.78588373</v>
       </c>
       <c r="H1298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1298" t="n">
-        <v>9625000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
@@ -43492,11 +43530,9 @@
         <v>-280.38348373</v>
       </c>
       <c r="H1299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1299" t="n">
-        <v>9641000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
       <c r="K1299" t="inlineStr">
         <is>
@@ -43531,11 +43567,9 @@
         <v>-281.58518373</v>
       </c>
       <c r="H1300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1300" t="n">
-        <v>9647000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
@@ -43570,11 +43604,9 @@
         <v>-278.65268373</v>
       </c>
       <c r="H1301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1301" t="n">
-        <v>9637000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
@@ -43609,11 +43641,9 @@
         <v>-276.2692080100001</v>
       </c>
       <c r="H1302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1302" t="n">
-        <v>9640000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
@@ -43648,11 +43678,9 @@
         <v>-272.8384736300001</v>
       </c>
       <c r="H1303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1303" t="n">
-        <v>9644000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
@@ -43687,11 +43715,9 @@
         <v>-275.1520838300001</v>
       </c>
       <c r="H1304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1304" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
@@ -43726,11 +43752,9 @@
         <v>-277.9648887400001</v>
       </c>
       <c r="H1305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1305" t="n">
-        <v>9641000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -43765,11 +43789,9 @@
         <v>-280.4867887400001</v>
       </c>
       <c r="H1306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1306" t="n">
-        <v>9630000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
@@ -43804,11 +43826,9 @@
         <v>-284.1035887400001</v>
       </c>
       <c r="H1307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1307" t="n">
-        <v>9629000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
@@ -43843,11 +43863,9 @@
         <v>-276.9874166800001</v>
       </c>
       <c r="H1308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1308" t="n">
-        <v>9626000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
@@ -43882,11 +43900,9 @@
         <v>-278.8081244500002</v>
       </c>
       <c r="H1309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1309" t="n">
-        <v>9627000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
@@ -43921,11 +43937,9 @@
         <v>-270.4505322200001</v>
       </c>
       <c r="H1310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1310" t="n">
-        <v>9622000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
@@ -43960,11 +43974,9 @@
         <v>-273.4654322200001</v>
       </c>
       <c r="H1311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1311" t="n">
-        <v>9632000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
@@ -43999,11 +44011,9 @@
         <v>-274.8863322200002</v>
       </c>
       <c r="H1312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1312" t="n">
-        <v>9627000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
@@ -44038,11 +44048,9 @@
         <v>-272.1471931600001</v>
       </c>
       <c r="H1313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1313" t="n">
-        <v>9626000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
@@ -44077,11 +44085,9 @@
         <v>-273.8174773700001</v>
       </c>
       <c r="H1314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1314" t="n">
-        <v>9630000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44266,11 +44272,9 @@
         <v>-242.2367474800001</v>
       </c>
       <c r="H1319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1319" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44305,11 +44309,9 @@
         <v>-241.4560474400001</v>
       </c>
       <c r="H1320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1320" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
@@ -44344,11 +44346,9 @@
         <v>-245.0069209300001</v>
       </c>
       <c r="H1321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1321" t="n">
-        <v>9646000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
@@ -44383,11 +44383,9 @@
         <v>-246.6491676200001</v>
       </c>
       <c r="H1322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1322" t="n">
-        <v>9644000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
@@ -44422,11 +44420,9 @@
         <v>-248.3633044200001</v>
       </c>
       <c r="H1323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1323" t="n">
-        <v>9643000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
@@ -44461,11 +44457,9 @@
         <v>-250.2572044200001</v>
       </c>
       <c r="H1324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1324" t="n">
-        <v>9642000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
@@ -44500,11 +44494,9 @@
         <v>-252.7367936000001</v>
       </c>
       <c r="H1325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>9640000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
@@ -44539,11 +44531,9 @@
         <v>-255.1630314800001</v>
       </c>
       <c r="H1326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1326" t="n">
-        <v>9631000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
@@ -44578,11 +44568,9 @@
         <v>-251.6462201100001</v>
       </c>
       <c r="H1327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1327" t="n">
-        <v>9625000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
@@ -44617,11 +44605,9 @@
         <v>-251.7984201100001</v>
       </c>
       <c r="H1328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1328" t="n">
-        <v>9626000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
@@ -44634,6 +44620,6 @@
       <c r="M1328" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BTC.xlsx
+++ b/BackTest/2020-01-24 BackTest BTC.xlsx
@@ -451,7 +451,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6.723276069999987</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>7.399076069999987</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3.422861829999987</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>24.85716552999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>28.49236973999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>28.14836973999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>47.86696973999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>47.24316973999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>50.89526973999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>42.39096973999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>43.33853299999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>43.27413299999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>44.41643299999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>71.43183299999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>67.63774445999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>68.40824445999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>37.31444445999998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>37.19634445999998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>37.36224448999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>38.96434451999998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13.13036118999998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13.18806118999998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13.16176118999998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>11.44076118999998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>11.45066118999998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>11.45076118999998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>11.72296118999998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>12.33416118999998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>10.94786118999998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>12.19490746999998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>12.00580746999998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>11.83530746999998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>12.41350746999998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>11.64420746999998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>7.796607469999982</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>10.49970746999998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>10.42850746999998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>10.43630746999998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>10.42160592999998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>10.44160592999998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>9.652605929999982</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>8.774905929999981</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>8.772005929999981</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>8.785005929999981</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>7.490405929999981</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>4.708505929999982</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>4.709705929999981</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>4.834105929999981</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4.835305929999981</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>8.151884559999981</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>8.151784559999982</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>8.090184559999981</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>8.093984559999981</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>8.141308389999981</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2.772093600000019</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>3.52300552999998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>3.41560552999998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>9.333001419999979</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>8.910201419999979</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>8.988701419999979</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>9.108301419999979</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>9.089874209999978</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>9.390074209999979</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>9.352074209999978</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>9.355674209999979</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>9.308774209999978</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>9.308574209999978</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>9.304074209999978</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>9.312074209999977</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>9.311274209999977</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>9.314005209999978</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>9.236305209999978</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>14.81752766999998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>14.78932766999998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>15.38942766999998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>15.35872766999998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>15.36042766999998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>15.35122766999998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>15.82202766999998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>15.43412766999998</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>16.30182766999998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>16.29762766999998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>17.96855454999998</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>17.72005454999998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>17.82375454999998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>17.89285454999998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>17.74905454999998</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>17.75275454999998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>17.74065454999998</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>17.82975454999998</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>17.83795454999997</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>17.89605454999997</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>17.68165454999997</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>17.68395454999997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>18.70340274999997</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>14.68550274999997</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>14.69780423999997</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>14.56210423999997</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>15.61430423999997</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>15.27800426999997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>14.73950426999997</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>14.69500426999997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>15.33560426999997</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>15.53560426999997</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>15.53430426999997</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>14.83130426999997</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>14.59320426999997</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>14.87700426999997</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>14.87729659999997</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>14.87719576999997</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>14.12719576999997</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>14.14729576999997</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>13.64869576999997</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>13.94939576999997</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>13.57119576999997</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>14.43489576999997</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>13.91759576999997</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>14.22409576999997</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>14.04759576999997</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>14.29509576999997</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>14.27739576999997</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>14.54789576999997</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>13.76459576999997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>13.96479753999997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>13.76479753999997</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>13.88779223999997</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>14.02859223999997</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>14.48529223999997</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>14.14519761999997</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>14.16599761999997</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>14.15529761999997</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>14.16547927999997</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>14.11737927999997</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>14.31539761999997</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>14.31429761999997</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>14.31689761999997</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>14.28139761999997</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>14.39099761999997</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>14.24649761999997</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>14.28589761999997</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>14.29179761999997</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>14.08539761999997</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>14.18199761999997</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>14.14889761999997</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>14.18259761999997</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>14.20399761999997</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>14.18399761999997</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>14.29219761999997</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>14.21409761999998</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>14.21772003999997</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>14.21652003999997</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>14.21812003999997</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>14.19612003999997</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>14.19732003999997</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>12.30892003999997</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>12.29328234999997</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>13.81521744999997</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>13.75781744999997</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>13.70251744999997</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>13.70282777999997</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>13.68532777999997</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>14.11862777999997</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>14.12982777999997</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>13.98272620999997</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>14.37392620999997</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>14.34862620999997</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>14.44864647999997</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>14.17204647999997</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>14.27602244999997</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>14.19132244999997</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>14.41572244999997</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>14.30742244999997</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>14.49644647999997</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>14.89184647999997</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>14.85624647999997</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>16.74734647999997</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>15.47434647999997</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>15.31844642999997</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>15.32014642999997</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>15.35244642999997</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>15.20344642999997</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>15.25412074999997</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>15.87310960999997</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>15.86490960999997</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>15.65350960999997</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>15.68900960999997</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>16.07040960999997</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>15.62800960999997</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>16.48690955999998</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>16.14950950999998</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>16.27540950999998</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>16.26840950999998</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>16.22720950999998</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>16.95340950999998</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>17.19020950999997</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>17.34159165999997</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>17.31279165999997</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>16.98579165999997</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>16.79769165999997</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>18.04059165999997</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>14.74519165999997</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>14.75089165999997</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>13.85069165999997</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>13.86106838999997</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>13.29166838999997</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>14.58966838999997</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>15.39426838999997</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>15.33386838999997</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>15.45576838999997</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>16.00516838999997</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>16.51136838999997</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>17.37956838999997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>16.78916838999998</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>15.90076838999997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>16.24726838999997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>16.10906838999997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>18.83556838999997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>17.82636838999997</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>18.17536838999997</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>17.57236838999997</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>17.90026838999997</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>15.73256838999997</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>18.63026838999997</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>18.46416838999997</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>25.94496838999997</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>26.72066838999997</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>26.69876838999997</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>27.66086286999997</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>27.61776286999998</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>27.57196286999998</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>15.12726286999998</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>14.42996286999998</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>13.34536286999998</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>16.00214025999998</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>15.86804025999998</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>24.88654025999998</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>24.19984025999998</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>24.82924025999998</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>24.82424025999998</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>23.29904025999998</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>23.34174025999998</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>25.04004154999998</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>25.06554154999998</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>25.34284156999998</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>24.01224156999998</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>24.81004156999997</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>24.62784005999998</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>24.77484005999997</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>24.51643779999997</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>23.97603779999997</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>24.80390381999997</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>24.66260381999997</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>25.14860381999997</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>25.13440381999997</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>24.89310381999997</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>24.59570381999997</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>25.88928660999997</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>25.90618660999997</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>25.68958660999997</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>26.15059906999997</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>25.71019906999997</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>23.05029906999997</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>23.18669906999997</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>22.66789906999997</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>22.60157548999997</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>21.23977548999997</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>20.80457548999997</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>17.25637546999997</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>16.74487546999997</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>12.00717961999997</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>12.66307961999997</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>10.37817858999997</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>12.84427858999997</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>13.43187858999997</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>13.97717858999997</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>13.65587858999997</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>12.68167858999997</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>13.42067858999997</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>15.06787858999997</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>15.50507725999997</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>15.21167727999997</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>12.84825477999997</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>14.67055477999997</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>14.77145477999997</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>14.52575477999997</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>14.82875477999997</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>17.97135477999997</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>19.42615472999997</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>18.08445472999997</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>17.44205472999997</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>20.77715472999997</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>20.64195472999997</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>27.21255472999997</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>27.92445472999997</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>19.91425472999997</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>23.95765472999997</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>21.94045472999997</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>21.95555472999997</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>21.57265472999998</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>21.84185472999998</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>21.73315446999998</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>21.65071123999998</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>21.42991123999998</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>20.94346604999998</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>19.78186604999998</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>23.38096604999998</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>20.67756604999998</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>21.15866604999998</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>18.94706604999998</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>18.41826604999998</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>18.42026604999998</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>17.17516604999998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>13.77985357999998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>10.44545357999998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>2.242853579999975</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-135.29393134</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-129.00493134</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-127.7296361</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-128.66274086</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-134.43314086</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-135.18744086</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-134.43104086</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-134.49444086</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-132.43044086</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-133.90028952</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-128.49288464</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-128.70248464</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-121.56808464</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-118.47708464</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-127.72811384</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-130.79881384</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-131.8439766</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-135.4416191800001</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-136.4258726100001</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-136.8471946800001</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-137.0502170700001</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-137.6488170700001</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-147.2536228900001</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-147.1368228700001</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-127.0246700800001</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-125.5946700800001</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-131.4666700800001</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-148.5387700800001</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-145.4975782300001</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-126.3497782300001</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-133.8455782300001</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-145.5713776100001</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-159.8728776100001</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-178.6980006600001</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-167.0444006600001</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-166.0504237100001</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-136.3519237100001</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-134.2537237100001</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-136.3211237100001</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-133.8728237100001</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-133.6069445600001</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-134.2236445600001</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-140.8624445600001</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-131.4361445600001</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-118.9064621000001</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-132.6653621000001</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-116.3499883800001</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-141.2438883800001</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-128.6041883800001</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-128.5885883800001</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-128.1383883800001</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-127.7122883800001</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-127.1551883800001</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-127.0980676000001</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-130.9280010600001</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-128.1837010600001</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-127.8460553000001</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-126.9990110300001</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-126.3889071600001</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-128.2507072000001</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-127.1972907800001</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-124.8746907800001</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-123.9542907800001</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-123.0041907800001</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-134.0025907800001</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-130.9729870400001</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-131.3408870400001</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-124.9711870400001</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-122.0545200900001</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-125.8075200900001</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-116.6381200900001</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-115.1151200900001</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-110.8098027900001</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -38599,7 +38599,7 @@
         <v>-219.5171810100001</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -38830,7 +38830,7 @@
         <v>-216.7892364500001</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -38863,7 +38863,7 @@
         <v>-218.3448364500001</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -38896,7 +38896,7 @@
         <v>-221.1523661200001</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -39028,7 +39028,7 @@
         <v>-221.8969859200001</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -39127,7 +39127,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -39160,7 +39160,7 @@
         <v>-222.9141859200001</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -39193,7 +39193,7 @@
         <v>-220.8135859200002</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -39226,7 +39226,7 @@
         <v>-221.3098859200001</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -39259,7 +39259,7 @@
         <v>-224.5098859200001</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -39787,7 +39787,7 @@
         <v>-218.2682044800002</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -39820,7 +39820,7 @@
         <v>-215.9622695800002</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -39853,7 +39853,7 @@
         <v>-218.3918695800002</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -39886,7 +39886,7 @@
         <v>-218.2485695800002</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -39919,7 +39919,7 @@
         <v>-220.2503695800002</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -39952,7 +39952,7 @@
         <v>-225.2776695800002</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -39985,7 +39985,7 @@
         <v>-225.5894695800002</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -41536,17 +41536,11 @@
         <v>-251.1985154800001</v>
       </c>
       <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>9700000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41575,17 +41569,11 @@
         <v>-251.0096154800001</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>9692000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41614,17 +41602,11 @@
         <v>-252.0004154800001</v>
       </c>
       <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>9693000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41653,17 +41635,11 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>9692000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41692,17 +41668,11 @@
         <v>-253.7889154800001</v>
       </c>
       <c r="H1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41731,17 +41701,11 @@
         <v>-254.0725154800001</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -41770,17 +41734,11 @@
         <v>-256.7937488900001</v>
       </c>
       <c r="H1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>9688000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -41809,17 +41767,11 @@
         <v>-261.6914652000002</v>
       </c>
       <c r="H1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>9685000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -41848,17 +41800,11 @@
         <v>-258.5679652000002</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>9675000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -41887,17 +41833,11 @@
         <v>-256.4728652000002</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>9677000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -41926,17 +41866,11 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>9683000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -41965,17 +41899,11 @@
         <v>-257.5491299500002</v>
       </c>
       <c r="H1258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>9675000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42004,17 +41932,11 @@
         <v>-261.1334067900002</v>
       </c>
       <c r="H1259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1259" t="n">
-        <v>9675000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42043,17 +41965,11 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1260" t="n">
-        <v>9672000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42082,17 +41998,11 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>9673000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42121,17 +42031,11 @@
         <v>-255.3537067900002</v>
       </c>
       <c r="H1262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1262" t="n">
-        <v>9673000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42160,17 +42064,11 @@
         <v>-274.0613067900002</v>
       </c>
       <c r="H1263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>9673000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42199,17 +42097,11 @@
         <v>-281.4345067900002</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>9662000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42238,17 +42130,11 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>9655000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42277,17 +42163,11 @@
         <v>-285.0247068100002</v>
       </c>
       <c r="H1266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1266" t="n">
-        <v>9650000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42316,17 +42196,11 @@
         <v>-272.9403463400002</v>
       </c>
       <c r="H1267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1267" t="n">
-        <v>9650000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42355,17 +42229,11 @@
         <v>-277.3794463400002</v>
       </c>
       <c r="H1268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1268" t="n">
-        <v>9661000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42394,17 +42262,11 @@
         <v>-271.2865463400002</v>
       </c>
       <c r="H1269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1269" t="n">
-        <v>9652000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42433,17 +42295,11 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1270" t="n">
-        <v>9657000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42472,17 +42328,11 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1271" t="n">
-        <v>9661000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42511,17 +42361,11 @@
         <v>-266.7546463400002</v>
       </c>
       <c r="H1272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1272" t="n">
-        <v>9661000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42550,17 +42394,11 @@
         <v>-267.8933588500002</v>
       </c>
       <c r="H1273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>9661000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42589,17 +42427,11 @@
         <v>-270.3184372700002</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>9656000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -42628,17 +42460,11 @@
         <v>-270.6284372700002</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>9648000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -42667,17 +42493,11 @@
         <v>-282.4148372700002</v>
       </c>
       <c r="H1276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -42706,17 +42526,11 @@
         <v>-283.8736372700002</v>
       </c>
       <c r="H1277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1277" t="n">
-        <v>9642000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -42745,17 +42559,11 @@
         <v>-291.7830372700002</v>
       </c>
       <c r="H1278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1278" t="n">
-        <v>9640000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -42784,17 +42592,11 @@
         <v>-278.8255372700002</v>
       </c>
       <c r="H1279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1279" t="n">
-        <v>9638000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -42823,17 +42625,11 @@
         <v>-294.2960727000002</v>
       </c>
       <c r="H1280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1280" t="n">
-        <v>9649000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -42866,11 +42662,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -42903,11 +42695,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1282" t="inlineStr"/>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -42940,11 +42728,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1283" t="inlineStr"/>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -42977,11 +42761,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1284" t="inlineStr"/>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -43014,11 +42794,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1285" t="inlineStr"/>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -43051,11 +42827,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1286" t="inlineStr"/>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -43088,11 +42860,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1287" t="inlineStr"/>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -43125,11 +42893,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1288" t="inlineStr"/>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -43162,11 +42926,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1289" t="inlineStr"/>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -43199,11 +42959,7 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1290" t="inlineStr"/>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -43236,11 +42992,7 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1291" t="inlineStr"/>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -43273,11 +43025,7 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1292" t="inlineStr"/>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -43310,11 +43058,7 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1293" t="inlineStr"/>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -43347,11 +43091,7 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1294" t="inlineStr"/>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -43384,11 +43124,7 @@
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1295" t="inlineStr"/>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -43417,17 +43153,11 @@
         <v>-279.1970128200001</v>
       </c>
       <c r="H1296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1296" t="n">
-        <v>9633000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1296" t="inlineStr"/>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -43460,11 +43190,7 @@
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1297" t="inlineStr"/>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -43497,11 +43223,7 @@
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1298" t="inlineStr"/>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -43534,11 +43256,7 @@
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1299" t="inlineStr"/>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -43571,11 +43289,7 @@
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1300" t="inlineStr"/>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -43608,11 +43322,7 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1301" t="inlineStr"/>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -43645,11 +43355,7 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1302" t="inlineStr"/>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -43678,13 +43384,15 @@
         <v>-272.8384736300001</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>9644000</v>
+      </c>
       <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1303" t="n">
@@ -43752,9 +43460,11 @@
         <v>-277.9648887400001</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>9641000</v>
+      </c>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -43789,9 +43499,11 @@
         <v>-280.4867887400001</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>9630000</v>
+      </c>
       <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
@@ -43826,9 +43538,11 @@
         <v>-284.1035887400001</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>9629000</v>
+      </c>
       <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
@@ -43863,9 +43577,11 @@
         <v>-276.9874166800001</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>9626000</v>
+      </c>
       <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
@@ -43900,9 +43616,11 @@
         <v>-278.8081244500002</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>9627000</v>
+      </c>
       <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
@@ -43937,9 +43655,11 @@
         <v>-270.4505322200001</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>9622000</v>
+      </c>
       <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
@@ -43974,9 +43694,11 @@
         <v>-273.4654322200001</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>9632000</v>
+      </c>
       <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
@@ -44011,9 +43733,11 @@
         <v>-274.8863322200002</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>9627000</v>
+      </c>
       <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
@@ -44048,9 +43772,11 @@
         <v>-272.1471931600001</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>9626000</v>
+      </c>
       <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
@@ -44085,9 +43811,11 @@
         <v>-273.8174773700001</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>9630000</v>
+      </c>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44161,9 +43889,11 @@
         <v>-249.1492636200001</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>9638000</v>
+      </c>
       <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
@@ -44568,9 +44298,11 @@
         <v>-251.6462201100001</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>9625000</v>
+      </c>
       <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
@@ -44605,9 +44337,11 @@
         <v>-251.7984201100001</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>9626000</v>
+      </c>
       <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
